--- a/WavPlayerFFTDisplay/FilterAnalysis.xlsx
+++ b/WavPlayerFFTDisplay/FilterAnalysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\workspace\C++\Audio\AudioProgramming\WavPlayerFFTDisplay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{936461A5-8219-41F1-9FE1-4A7AEDF1A1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3432D2-AABC-446B-A5F1-9C2C839733F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C289B5B5-EADC-4AA0-8AEF-73A926C05BA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Convolution Filter" sheetId="1" r:id="rId1"/>
+    <sheet name="Filters Compare" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -34,12 +35,149 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>No Filter</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Convolution</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Theory and comments below based on the PDF 'Guide_to_Digital_Signal_Process'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Convolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:       A 20 points kernel applied on a data sample buffer of 50. In order word, the last 50 samples are part of the filtering at any instant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:              The last 10 points of the samples are averaged, which shows the same trend as the figure 15.2  of  p280 of the </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple: </t>
+  </si>
+  <si>
+    <t>A 20 points kernel applied on a data sample buffer of 50. In order word, the last 50 samples are part of the filtering at any instant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The last 10 points of the samples are averaged, which shows the same trend as the figure 15.2  of  p280 of the </t>
+  </si>
+  <si>
+    <t>From the Curious Web Site, and filter that appears to be recursive and using the following form:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        y[i]   = 0.969y[i-1] +  0.0155x[i] + 0.0155x[i-1]</t>
+  </si>
+  <si>
+    <t>No filter:</t>
+  </si>
+  <si>
+    <t>Data used as a reference point. The signal is white noise, and should have a equal frequency distribution</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,8 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,7 +332,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$129</c:f>
+              <c:f>'Convolution Filter'!$B$2:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -584,7 +725,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$129</c:f>
+              <c:f>'Convolution Filter'!$C$2:$C$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -1327,7 +1468,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$129</c:f>
+              <c:f>'Convolution Filter'!$B$2:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -1720,7 +1861,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$129</c:f>
+              <c:f>'Convolution Filter'!$D$2:$D$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -2405,7 +2546,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$129</c:f>
+              <c:f>'Convolution Filter'!$B$2:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -2798,7 +2939,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$129</c:f>
+              <c:f>'Convolution Filter'!$E$2:$E$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -3509,7 +3650,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$129</c:f>
+              <c:f>'Convolution Filter'!$B$2:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -3902,7 +4043,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$129</c:f>
+              <c:f>'Convolution Filter'!$F$2:$F$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -4480,6 +4621,3641 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Filters</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Frequency Response</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Filters Compare'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Filter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Filters Compare'!$A$2:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Filters Compare'!$B$2:$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1710.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1752.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1703.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1672.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1719.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1814.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1643.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1637.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1594.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1668.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1651.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1662.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1712.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1715.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1742.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1626.97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1670.14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1639.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1612.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1672.48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1613.93</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1596.49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1760.85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1703.69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1635.51</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1558.14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1717.17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1850.29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1773.41</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1660.77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1748.99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1618.98</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1579.46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1795.08</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1674.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1823.07</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1718.26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1661.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1528.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1623.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1635.16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1740.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1702.92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1752.26</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1724.28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1909.42</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1633.31</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1651.24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1680.87</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1789.79</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1631.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1602.64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1604.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1691.65</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1767.32</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1753.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1708.73</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1795.68</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1720.27</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1517.23</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1710.83</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1660.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1706.25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1592.11</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1661.28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1804.06</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1803.69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1686.85</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1547.05</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1641.97</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1679.15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1722.16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1749.32</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1648.65</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1777.47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1832.17</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1560.53</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1760.05</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1654.61</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1735.96</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1604.27</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1708.84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1752.96</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1702.23</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1595.67</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1573.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1665.37</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1618.47</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1636.43</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1462.18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1798.73</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1689.45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1644.75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1772.13</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1604.11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1684.73</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1570.96</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1760.49</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1627.17</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1631.38</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1737.14</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1651.06</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1709.61</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1768.43</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1650.41</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1697.37</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1757.05</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1651.03</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1710.56</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1822.75</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1600.82</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1737.57</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1682.02</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1696.43</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1556.85</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1644.05</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1800.09</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1785.28</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1633.48</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1712.29</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1728.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1610.42</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1710.12</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1795.43</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1675.77</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1645.73</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1635.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B16-41D1-9DA6-E66AE3B48942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Filters Compare'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Filters Compare'!$A$2:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Filters Compare'!$C$2:$C$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1378.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1295.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>882.71799999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>710.78599999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>541.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>458.09699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353.03100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>316.666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>261.029</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>231.733</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>222.72300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>197.767</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>193.59899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>171.148</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>154.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.53299999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134.21100000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125.45099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122.65600000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>108.07599999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103.259</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.376</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99.933800000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91.907499999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86.831800000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77.636600000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80.945999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>84.758399999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80.243399999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.241100000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69.552400000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65.320099999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63.763399999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66.620900000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>63.6325</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64.942599999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56.349699999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.386800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>54.529000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55.454700000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.105400000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.497300000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45.405900000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.043599999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>48.109400000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.199300000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41.756799999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41.501800000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42.617699999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39.851199999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.279499999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36.8108</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>38.5242</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35.822400000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.2575</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.154899999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33.940399999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31.4039</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28.469100000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.847799999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32.934199999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27.303699999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.348800000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26.712900000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27.2393</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.0136</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.6355</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23.740600000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22.6861</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.817499999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.498200000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>23.4239</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20.5762</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>21.364000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23.179600000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.02</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.909300000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.562999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19.545999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19.892600000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18.3797</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19.445399999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17.7135</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17.214500000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>15.683</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.285399999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15.8688</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.386100000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.1952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16.017800000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.440099999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14.088699999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14.6768</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.8171</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12.8939</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.3499</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11.943899999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>11.3811</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>12.4185</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11.7933</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11.5177</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3469</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.4193</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.894500000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.8161</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.1264</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.2158</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.6188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.7221600000000006</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.9350400000000008</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.7579600000000006</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.9792699999999996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8.7066199999999991</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.3024400000000007</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.20425</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.8696099999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.6863900000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.16913</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.1802999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.9563800000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.9597600000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.9568599999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.7261899999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.6497700000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.6330400000000003</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.5362200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B16-41D1-9DA6-E66AE3B48942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Filters Compare'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Filters Compare'!$A$2:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Filters Compare'!$D$2:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1676.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1691.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1685.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1818.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1567.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1703.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1509.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1544.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1329.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1324.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1246.3900000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1160.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1151.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1078.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>963.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>868.029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>823.27800000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>677.38400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>580.37300000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>496.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>475.58499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>391.43400000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>312.54199999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>238.578</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159.19399999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>127.506</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112.36499999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>138.48699999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>192.83799999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>197.87200000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>236.95400000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>260.58300000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330.255</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>347.77199999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>369.512</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>388.72399999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>368.35500000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>383.27100000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>362.01299999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>366.27499999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>341.98700000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>332.851</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>341.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>304.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>259.74900000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>252.071</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184.905</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>157.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>132.24700000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>101.304</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>88.062399999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>64.549300000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71.536900000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>84.253600000000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>104.298</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>139.47900000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>152.09200000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>171.43899999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>198.197</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>179.54499999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>217.29900000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>250.61199999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>225.255</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>256.55900000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>236.44399999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>237.404</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>248.02099999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>232.233</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>215.14599999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>172.18600000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>172.36199999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>138.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>119.45399999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>102.967</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82.903099999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62.110900000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>48.284100000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41.388599999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>47.877699999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72.521299999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82.454700000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99.067400000000006</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>132.608</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>130.99100000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>149.172</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>162.56700000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>156.03100000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>178.40299999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>184.61199999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>189.56</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>173.65299999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>194.94399999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>173.03200000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>153.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>163.90199999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>146.97900000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>123.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>106.157</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98.489199999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>77.400599999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>59.460799999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>47.822299999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37.134999999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37.051099999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>49.770699999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>67.941699999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>89.109899999999996</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>95.961799999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>118.378</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>127.872</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>150.71600000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>148.184</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>158.26300000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>166.148</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>182.06</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>159.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>170.22800000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>184.304</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>186.41399999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>155.422</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>144.386</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>130.167</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>109.827</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>103.23</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>86.945700000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>69.379800000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52.482999999999997</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41.6648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B16-41D1-9DA6-E66AE3B48942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Filters Compare'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Convolution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Filters Compare'!$A$2:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Filters Compare'!$E$2:$E$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1636.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1672.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1704.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1775.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1551.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1647.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1390.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1333.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1227.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1218.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1018.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>884.15899999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>794.50300000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>606.048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>481.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>385.62400000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>317.27100000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>238.13800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>165.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>131.797</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113.29600000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.800200000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.281700000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86.007900000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81.400099999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77.253799999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73.697900000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70.123599999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.547600000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64.994600000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.043900000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.563200000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57.290399999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55.376399999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54.006399999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.423900000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.092700000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.648899999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48.299900000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.7485</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45.6218</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44.6706</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.275500000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42.673900000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.251300000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40.4741</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.708799999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38.995600000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38.286200000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37.3264</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37.1053</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.101599999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35.311199999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34.527099999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>34.051699999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.645299999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.175699999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.549199999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.077199999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31.56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31.280799999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.811900000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.7454</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.8734</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>29.558700000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29.0016</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28.817</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28.622499999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28.1082</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27.933599999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>27.715800000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>27.328299999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27.020399999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26.888400000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.7318</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>26.255700000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.002800000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25.6022</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25.352699999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25.128900000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25.112200000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25.1355</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>24.845400000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.492100000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24.166799999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24.038499999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23.9725</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>23.6844</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23.628499999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23.307300000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23.200600000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23.0305</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>22.8812</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22.7913</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22.927600000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>22.619399999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22.456700000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>22.290299999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>22.0822</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>22.056699999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>22.055800000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>21.846699999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21.851900000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>21.8261</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21.592400000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>21.6816</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21.713899999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>21.591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21.392399999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>21.3691</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>21.253499999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21.0945</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21.078600000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>20.9909</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>21.052499999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>21.042200000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>21.0381</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21.013200000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20.951599999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>20.706700000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>20.943000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>20.7088</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>20.684999999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>20.7149</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20.6599</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>20.714500000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>20.732500000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>20.613399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3B16-41D1-9DA6-E66AE3B48942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1540679871"/>
+        <c:axId val="1540692351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1540679871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540692351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1540692351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540679871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19672202007735468"/>
+          <c:y val="0.92915180877324155"/>
+          <c:w val="0.60655578413505229"/>
+          <c:h val="7.0848191226758395E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4569,6 +8345,46 @@
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -6636,6 +10452,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6777,6 +11109,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F163C5-F22D-59EF-2D5F-052D9AE40D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9270,4 +13643,2251 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D46CB-54FA-4592-B7EC-8DBDC694C6C4}">
+  <dimension ref="A1:H129"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1710.47</v>
+      </c>
+      <c r="C2">
+        <v>1378.34</v>
+      </c>
+      <c r="D2">
+        <v>1676.37</v>
+      </c>
+      <c r="E2">
+        <v>1636.21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1752.77</v>
+      </c>
+      <c r="C3">
+        <v>1295.46</v>
+      </c>
+      <c r="D3">
+        <v>1691.99</v>
+      </c>
+      <c r="E3">
+        <v>1672.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1703.66</v>
+      </c>
+      <c r="C4">
+        <v>882.71799999999996</v>
+      </c>
+      <c r="D4">
+        <v>1685.89</v>
+      </c>
+      <c r="E4">
+        <v>1704.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1672.99</v>
+      </c>
+      <c r="C5">
+        <v>710.78599999999994</v>
+      </c>
+      <c r="D5">
+        <v>1818.98</v>
+      </c>
+      <c r="E5">
+        <v>1775.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1719.88</v>
+      </c>
+      <c r="C6">
+        <v>541.52</v>
+      </c>
+      <c r="D6">
+        <v>1567.85</v>
+      </c>
+      <c r="E6">
+        <v>1551.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1814.79</v>
+      </c>
+      <c r="C7">
+        <v>458.09699999999998</v>
+      </c>
+      <c r="D7">
+        <v>1703.96</v>
+      </c>
+      <c r="E7">
+        <v>1647.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1643.73</v>
+      </c>
+      <c r="C8">
+        <v>353.03100000000001</v>
+      </c>
+      <c r="D8">
+        <v>1509.23</v>
+      </c>
+      <c r="E8">
+        <v>1390.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1637.8</v>
+      </c>
+      <c r="C9">
+        <v>316.666</v>
+      </c>
+      <c r="D9">
+        <v>1544.33</v>
+      </c>
+      <c r="E9">
+        <v>1333.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1594.14</v>
+      </c>
+      <c r="C10">
+        <v>261.029</v>
+      </c>
+      <c r="D10">
+        <v>1329.9</v>
+      </c>
+      <c r="E10">
+        <v>1227.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1668.9</v>
+      </c>
+      <c r="C11">
+        <v>231.733</v>
+      </c>
+      <c r="D11">
+        <v>1324.06</v>
+      </c>
+      <c r="E11">
+        <v>1218.8599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1651.57</v>
+      </c>
+      <c r="C12">
+        <v>222.72300000000001</v>
+      </c>
+      <c r="D12">
+        <v>1246.3900000000001</v>
+      </c>
+      <c r="E12">
+        <v>1018.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1662.93</v>
+      </c>
+      <c r="C13">
+        <v>197.767</v>
+      </c>
+      <c r="D13">
+        <v>1160.05</v>
+      </c>
+      <c r="E13">
+        <v>884.15899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1712.79</v>
+      </c>
+      <c r="C14">
+        <v>193.59899999999999</v>
+      </c>
+      <c r="D14">
+        <v>1151.1400000000001</v>
+      </c>
+      <c r="E14">
+        <v>794.50300000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1715.4</v>
+      </c>
+      <c r="C15">
+        <v>171.148</v>
+      </c>
+      <c r="D15">
+        <v>1078.3</v>
+      </c>
+      <c r="E15">
+        <v>606.048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1742.12</v>
+      </c>
+      <c r="C16">
+        <v>154.43299999999999</v>
+      </c>
+      <c r="D16">
+        <v>963.45600000000002</v>
+      </c>
+      <c r="E16">
+        <v>481.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1626.97</v>
+      </c>
+      <c r="C17">
+        <v>131.53299999999999</v>
+      </c>
+      <c r="D17">
+        <v>868.029</v>
+      </c>
+      <c r="E17">
+        <v>385.62400000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1670.14</v>
+      </c>
+      <c r="C18">
+        <v>134.21100000000001</v>
+      </c>
+      <c r="D18">
+        <v>823.27800000000002</v>
+      </c>
+      <c r="E18">
+        <v>317.27100000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1639.17</v>
+      </c>
+      <c r="C19">
+        <v>125.45099999999999</v>
+      </c>
+      <c r="D19">
+        <v>677.38400000000001</v>
+      </c>
+      <c r="E19">
+        <v>238.13800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1612.81</v>
+      </c>
+      <c r="C20">
+        <v>122.65600000000001</v>
+      </c>
+      <c r="D20">
+        <v>580.37300000000005</v>
+      </c>
+      <c r="E20">
+        <v>165.44200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1672.48</v>
+      </c>
+      <c r="C21">
+        <v>108.07599999999999</v>
+      </c>
+      <c r="D21">
+        <v>496.21300000000002</v>
+      </c>
+      <c r="E21">
+        <v>131.797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1613.93</v>
+      </c>
+      <c r="C22">
+        <v>103.259</v>
+      </c>
+      <c r="D22">
+        <v>475.58499999999998</v>
+      </c>
+      <c r="E22">
+        <v>113.29600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1596.49</v>
+      </c>
+      <c r="C23">
+        <v>100.376</v>
+      </c>
+      <c r="D23">
+        <v>391.43400000000003</v>
+      </c>
+      <c r="E23">
+        <v>99.800200000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1760.85</v>
+      </c>
+      <c r="C24">
+        <v>99.933800000000005</v>
+      </c>
+      <c r="D24">
+        <v>312.54199999999997</v>
+      </c>
+      <c r="E24">
+        <v>91.281700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1703.69</v>
+      </c>
+      <c r="C25">
+        <v>91.907499999999999</v>
+      </c>
+      <c r="D25">
+        <v>238.578</v>
+      </c>
+      <c r="E25">
+        <v>86.007900000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1635.51</v>
+      </c>
+      <c r="C26">
+        <v>86.831800000000001</v>
+      </c>
+      <c r="D26">
+        <v>159.19399999999999</v>
+      </c>
+      <c r="E26">
+        <v>81.400099999999995</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1558.14</v>
+      </c>
+      <c r="C27">
+        <v>77.636600000000001</v>
+      </c>
+      <c r="D27">
+        <v>127.506</v>
+      </c>
+      <c r="E27">
+        <v>77.253799999999998</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1717.17</v>
+      </c>
+      <c r="C28">
+        <v>80.945999999999998</v>
+      </c>
+      <c r="D28">
+        <v>112.36499999999999</v>
+      </c>
+      <c r="E28">
+        <v>73.697900000000004</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1850.29</v>
+      </c>
+      <c r="C29">
+        <v>84.758399999999995</v>
+      </c>
+      <c r="D29">
+        <v>138.48699999999999</v>
+      </c>
+      <c r="E29">
+        <v>70.123599999999996</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1773.41</v>
+      </c>
+      <c r="C30">
+        <v>80.243399999999994</v>
+      </c>
+      <c r="D30">
+        <v>192.83799999999999</v>
+      </c>
+      <c r="E30">
+        <v>67.547600000000003</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1660.77</v>
+      </c>
+      <c r="C31">
+        <v>69.241100000000003</v>
+      </c>
+      <c r="D31">
+        <v>197.87200000000001</v>
+      </c>
+      <c r="E31">
+        <v>64.994600000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1748.99</v>
+      </c>
+      <c r="C32">
+        <v>69.552400000000006</v>
+      </c>
+      <c r="D32">
+        <v>236.95400000000001</v>
+      </c>
+      <c r="E32">
+        <v>62.043900000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1618.98</v>
+      </c>
+      <c r="C33">
+        <v>65.320099999999996</v>
+      </c>
+      <c r="D33">
+        <v>260.58300000000003</v>
+      </c>
+      <c r="E33">
+        <v>59.563200000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1579.46</v>
+      </c>
+      <c r="C34">
+        <v>63.763399999999997</v>
+      </c>
+      <c r="D34">
+        <v>330.255</v>
+      </c>
+      <c r="E34">
+        <v>57.290399999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1795.08</v>
+      </c>
+      <c r="C35">
+        <v>66.620900000000006</v>
+      </c>
+      <c r="D35">
+        <v>347.77199999999999</v>
+      </c>
+      <c r="E35">
+        <v>55.376399999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1674.3</v>
+      </c>
+      <c r="C36">
+        <v>63.6325</v>
+      </c>
+      <c r="D36">
+        <v>369.512</v>
+      </c>
+      <c r="E36">
+        <v>54.006399999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1823.07</v>
+      </c>
+      <c r="C37">
+        <v>64.942599999999999</v>
+      </c>
+      <c r="D37">
+        <v>388.72399999999999</v>
+      </c>
+      <c r="E37">
+        <v>52.423900000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1718.26</v>
+      </c>
+      <c r="C38">
+        <v>56.349699999999999</v>
+      </c>
+      <c r="D38">
+        <v>368.35500000000002</v>
+      </c>
+      <c r="E38">
+        <v>51.092700000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1661.04</v>
+      </c>
+      <c r="C39">
+        <v>51.386800000000001</v>
+      </c>
+      <c r="D39">
+        <v>383.27100000000002</v>
+      </c>
+      <c r="E39">
+        <v>49.648899999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1528.39</v>
+      </c>
+      <c r="C40">
+        <v>54.529000000000003</v>
+      </c>
+      <c r="D40">
+        <v>362.01299999999998</v>
+      </c>
+      <c r="E40">
+        <v>48.299900000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1623.7</v>
+      </c>
+      <c r="C41">
+        <v>55.454700000000003</v>
+      </c>
+      <c r="D41">
+        <v>366.27499999999998</v>
+      </c>
+      <c r="E41">
+        <v>46.7485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1635.16</v>
+      </c>
+      <c r="C42">
+        <v>53.105400000000003</v>
+      </c>
+      <c r="D42">
+        <v>341.98700000000002</v>
+      </c>
+      <c r="E42">
+        <v>45.6218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1740.41</v>
+      </c>
+      <c r="C43">
+        <v>50.497300000000003</v>
+      </c>
+      <c r="D43">
+        <v>332.851</v>
+      </c>
+      <c r="E43">
+        <v>44.6706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1702.92</v>
+      </c>
+      <c r="C44">
+        <v>45.405900000000003</v>
+      </c>
+      <c r="D44">
+        <v>341.16300000000001</v>
+      </c>
+      <c r="E44">
+        <v>43.275500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1752.26</v>
+      </c>
+      <c r="C45">
+        <v>50.176000000000002</v>
+      </c>
+      <c r="D45">
+        <v>304.89999999999998</v>
+      </c>
+      <c r="E45">
+        <v>42.673900000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1724.28</v>
+      </c>
+      <c r="C46">
+        <v>44.043599999999998</v>
+      </c>
+      <c r="D46">
+        <v>259.74900000000002</v>
+      </c>
+      <c r="E46">
+        <v>41.251300000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1909.42</v>
+      </c>
+      <c r="C47">
+        <v>48.109400000000001</v>
+      </c>
+      <c r="D47">
+        <v>252.071</v>
+      </c>
+      <c r="E47">
+        <v>40.4741</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1633.31</v>
+      </c>
+      <c r="C48">
+        <v>41.199300000000001</v>
+      </c>
+      <c r="D48">
+        <v>184.905</v>
+      </c>
+      <c r="E48">
+        <v>39.708799999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1651.24</v>
+      </c>
+      <c r="C49">
+        <v>41.756799999999998</v>
+      </c>
+      <c r="D49">
+        <v>157.83000000000001</v>
+      </c>
+      <c r="E49">
+        <v>38.995600000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1680.87</v>
+      </c>
+      <c r="C50">
+        <v>41.501800000000003</v>
+      </c>
+      <c r="D50">
+        <v>132.24700000000001</v>
+      </c>
+      <c r="E50">
+        <v>38.286200000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1789.79</v>
+      </c>
+      <c r="C51">
+        <v>42.617699999999999</v>
+      </c>
+      <c r="D51">
+        <v>101.304</v>
+      </c>
+      <c r="E51">
+        <v>37.3264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1631.8</v>
+      </c>
+      <c r="C52">
+        <v>39.851199999999999</v>
+      </c>
+      <c r="D52">
+        <v>88.062399999999997</v>
+      </c>
+      <c r="E52">
+        <v>37.1053</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1602.64</v>
+      </c>
+      <c r="C53">
+        <v>36.279499999999999</v>
+      </c>
+      <c r="D53">
+        <v>64.549300000000002</v>
+      </c>
+      <c r="E53">
+        <v>36.101599999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1604.5</v>
+      </c>
+      <c r="C54">
+        <v>36.8108</v>
+      </c>
+      <c r="D54">
+        <v>71.536900000000003</v>
+      </c>
+      <c r="E54">
+        <v>35.311199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1691.65</v>
+      </c>
+      <c r="C55">
+        <v>38.5242</v>
+      </c>
+      <c r="D55">
+        <v>84.253600000000006</v>
+      </c>
+      <c r="E55">
+        <v>34.527099999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1767.32</v>
+      </c>
+      <c r="C56">
+        <v>35.822400000000002</v>
+      </c>
+      <c r="D56">
+        <v>104.298</v>
+      </c>
+      <c r="E56">
+        <v>34.051699999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1753.1</v>
+      </c>
+      <c r="C57">
+        <v>34.2575</v>
+      </c>
+      <c r="D57">
+        <v>139.47900000000001</v>
+      </c>
+      <c r="E57">
+        <v>33.645299999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1708.73</v>
+      </c>
+      <c r="C58">
+        <v>33.154899999999998</v>
+      </c>
+      <c r="D58">
+        <v>152.09200000000001</v>
+      </c>
+      <c r="E58">
+        <v>33.175699999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1795.68</v>
+      </c>
+      <c r="C59">
+        <v>33.940399999999997</v>
+      </c>
+      <c r="D59">
+        <v>171.43899999999999</v>
+      </c>
+      <c r="E59">
+        <v>32.549199999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1720.27</v>
+      </c>
+      <c r="C60">
+        <v>31.4039</v>
+      </c>
+      <c r="D60">
+        <v>198.197</v>
+      </c>
+      <c r="E60">
+        <v>32.077199999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1517.23</v>
+      </c>
+      <c r="C61">
+        <v>28.469100000000001</v>
+      </c>
+      <c r="D61">
+        <v>179.54499999999999</v>
+      </c>
+      <c r="E61">
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1710.83</v>
+      </c>
+      <c r="C62">
+        <v>30.847799999999999</v>
+      </c>
+      <c r="D62">
+        <v>217.29900000000001</v>
+      </c>
+      <c r="E62">
+        <v>31.280799999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1889</v>
+      </c>
+      <c r="C63">
+        <v>32.934199999999997</v>
+      </c>
+      <c r="D63">
+        <v>250.61199999999999</v>
+      </c>
+      <c r="E63">
+        <v>30.811900000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1660.62</v>
+      </c>
+      <c r="C64">
+        <v>27.303699999999999</v>
+      </c>
+      <c r="D64">
+        <v>225.255</v>
+      </c>
+      <c r="E64">
+        <v>30.7454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1706.25</v>
+      </c>
+      <c r="C65">
+        <v>30.348800000000001</v>
+      </c>
+      <c r="D65">
+        <v>256.55900000000003</v>
+      </c>
+      <c r="E65">
+        <v>29.8734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1592.11</v>
+      </c>
+      <c r="C66">
+        <v>26.635999999999999</v>
+      </c>
+      <c r="D66">
+        <v>236.44399999999999</v>
+      </c>
+      <c r="E66">
+        <v>29.558700000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1661.28</v>
+      </c>
+      <c r="C67">
+        <v>26.712900000000001</v>
+      </c>
+      <c r="D67">
+        <v>237.404</v>
+      </c>
+      <c r="E67">
+        <v>29.0016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1804.06</v>
+      </c>
+      <c r="C68">
+        <v>27.2393</v>
+      </c>
+      <c r="D68">
+        <v>248.02099999999999</v>
+      </c>
+      <c r="E68">
+        <v>28.817</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1803.69</v>
+      </c>
+      <c r="C69">
+        <v>27.0136</v>
+      </c>
+      <c r="D69">
+        <v>232.233</v>
+      </c>
+      <c r="E69">
+        <v>28.622499999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1686.85</v>
+      </c>
+      <c r="C70">
+        <v>26.6355</v>
+      </c>
+      <c r="D70">
+        <v>215.14599999999999</v>
+      </c>
+      <c r="E70">
+        <v>28.1082</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1547.05</v>
+      </c>
+      <c r="C71">
+        <v>23.740600000000001</v>
+      </c>
+      <c r="D71">
+        <v>172.18600000000001</v>
+      </c>
+      <c r="E71">
+        <v>27.933599999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1641.97</v>
+      </c>
+      <c r="C72">
+        <v>22.6861</v>
+      </c>
+      <c r="D72">
+        <v>172.36199999999999</v>
+      </c>
+      <c r="E72">
+        <v>27.715800000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1679.15</v>
+      </c>
+      <c r="C73">
+        <v>23.817499999999999</v>
+      </c>
+      <c r="D73">
+        <v>138.02000000000001</v>
+      </c>
+      <c r="E73">
+        <v>27.328299999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1722.16</v>
+      </c>
+      <c r="C74">
+        <v>23.498200000000001</v>
+      </c>
+      <c r="D74">
+        <v>119.45399999999999</v>
+      </c>
+      <c r="E74">
+        <v>27.020399999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1749.32</v>
+      </c>
+      <c r="C75">
+        <v>23.4239</v>
+      </c>
+      <c r="D75">
+        <v>102.967</v>
+      </c>
+      <c r="E75">
+        <v>26.888400000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1648.65</v>
+      </c>
+      <c r="C76">
+        <v>20.5762</v>
+      </c>
+      <c r="D76">
+        <v>82.903099999999995</v>
+      </c>
+      <c r="E76">
+        <v>26.7318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1777.47</v>
+      </c>
+      <c r="C77">
+        <v>21.364000000000001</v>
+      </c>
+      <c r="D77">
+        <v>62.110900000000001</v>
+      </c>
+      <c r="E77">
+        <v>26.255700000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1832.17</v>
+      </c>
+      <c r="C78">
+        <v>23.179600000000001</v>
+      </c>
+      <c r="D78">
+        <v>48.284100000000002</v>
+      </c>
+      <c r="E78">
+        <v>26.002800000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1560.53</v>
+      </c>
+      <c r="C79">
+        <v>19.02</v>
+      </c>
+      <c r="D79">
+        <v>41.388599999999997</v>
+      </c>
+      <c r="E79">
+        <v>25.6022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1760.05</v>
+      </c>
+      <c r="C80">
+        <v>19.909300000000002</v>
+      </c>
+      <c r="D80">
+        <v>47.877699999999997</v>
+      </c>
+      <c r="E80">
+        <v>25.352699999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1654.61</v>
+      </c>
+      <c r="C81">
+        <v>20.562999999999999</v>
+      </c>
+      <c r="D81">
+        <v>72.521299999999997</v>
+      </c>
+      <c r="E81">
+        <v>25.128900000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1735.96</v>
+      </c>
+      <c r="C82">
+        <v>19.545999999999999</v>
+      </c>
+      <c r="D82">
+        <v>82.454700000000003</v>
+      </c>
+      <c r="E82">
+        <v>25.112200000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1604.27</v>
+      </c>
+      <c r="C83">
+        <v>19.892600000000002</v>
+      </c>
+      <c r="D83">
+        <v>99.067400000000006</v>
+      </c>
+      <c r="E83">
+        <v>25.1355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1708.84</v>
+      </c>
+      <c r="C84">
+        <v>18.3797</v>
+      </c>
+      <c r="D84">
+        <v>132.608</v>
+      </c>
+      <c r="E84">
+        <v>24.845400000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1752.96</v>
+      </c>
+      <c r="C85">
+        <v>19.445399999999999</v>
+      </c>
+      <c r="D85">
+        <v>130.99100000000001</v>
+      </c>
+      <c r="E85">
+        <v>24.492100000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1702.23</v>
+      </c>
+      <c r="C86">
+        <v>17.7135</v>
+      </c>
+      <c r="D86">
+        <v>149.172</v>
+      </c>
+      <c r="E86">
+        <v>24.166799999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1595.67</v>
+      </c>
+      <c r="C87">
+        <v>17.214500000000001</v>
+      </c>
+      <c r="D87">
+        <v>162.56700000000001</v>
+      </c>
+      <c r="E87">
+        <v>24.038499999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1573.1</v>
+      </c>
+      <c r="C88">
+        <v>15.683</v>
+      </c>
+      <c r="D88">
+        <v>156.03100000000001</v>
+      </c>
+      <c r="E88">
+        <v>23.9725</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1665.37</v>
+      </c>
+      <c r="C89">
+        <v>17.285399999999999</v>
+      </c>
+      <c r="D89">
+        <v>178.40299999999999</v>
+      </c>
+      <c r="E89">
+        <v>23.6844</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1618.47</v>
+      </c>
+      <c r="C90">
+        <v>15.8688</v>
+      </c>
+      <c r="D90">
+        <v>184.61199999999999</v>
+      </c>
+      <c r="E90">
+        <v>23.628499999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1636.43</v>
+      </c>
+      <c r="C91">
+        <v>14.386100000000001</v>
+      </c>
+      <c r="D91">
+        <v>189.56</v>
+      </c>
+      <c r="E91">
+        <v>23.307300000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1462.18</v>
+      </c>
+      <c r="C92">
+        <v>15.1952</v>
+      </c>
+      <c r="D92">
+        <v>173.65299999999999</v>
+      </c>
+      <c r="E92">
+        <v>23.200600000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1798.73</v>
+      </c>
+      <c r="C93">
+        <v>16.017800000000001</v>
+      </c>
+      <c r="D93">
+        <v>194.94399999999999</v>
+      </c>
+      <c r="E93">
+        <v>23.0305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1689.45</v>
+      </c>
+      <c r="C94">
+        <v>14.440099999999999</v>
+      </c>
+      <c r="D94">
+        <v>173.03200000000001</v>
+      </c>
+      <c r="E94">
+        <v>22.8812</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1644.75</v>
+      </c>
+      <c r="C95">
+        <v>14.088699999999999</v>
+      </c>
+      <c r="D95">
+        <v>153.82499999999999</v>
+      </c>
+      <c r="E95">
+        <v>22.7913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1772.13</v>
+      </c>
+      <c r="C96">
+        <v>14.6768</v>
+      </c>
+      <c r="D96">
+        <v>163.90199999999999</v>
+      </c>
+      <c r="E96">
+        <v>22.927600000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1604.11</v>
+      </c>
+      <c r="C97">
+        <v>13.8171</v>
+      </c>
+      <c r="D97">
+        <v>146.97900000000001</v>
+      </c>
+      <c r="E97">
+        <v>22.619399999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1684.73</v>
+      </c>
+      <c r="C98">
+        <v>12.8939</v>
+      </c>
+      <c r="D98">
+        <v>123.76900000000001</v>
+      </c>
+      <c r="E98">
+        <v>22.456700000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1570.96</v>
+      </c>
+      <c r="C99">
+        <v>13.3499</v>
+      </c>
+      <c r="D99">
+        <v>106.157</v>
+      </c>
+      <c r="E99">
+        <v>22.290299999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1760.49</v>
+      </c>
+      <c r="C100">
+        <v>11.943899999999999</v>
+      </c>
+      <c r="D100">
+        <v>98.489199999999997</v>
+      </c>
+      <c r="E100">
+        <v>22.0822</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1627.17</v>
+      </c>
+      <c r="C101">
+        <v>11.3811</v>
+      </c>
+      <c r="D101">
+        <v>77.400599999999997</v>
+      </c>
+      <c r="E101">
+        <v>22.056699999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1631.38</v>
+      </c>
+      <c r="C102">
+        <v>12.4185</v>
+      </c>
+      <c r="D102">
+        <v>59.460799999999999</v>
+      </c>
+      <c r="E102">
+        <v>22.055800000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1737.14</v>
+      </c>
+      <c r="C103">
+        <v>11.7933</v>
+      </c>
+      <c r="D103">
+        <v>47.822299999999998</v>
+      </c>
+      <c r="E103">
+        <v>21.846699999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1651.06</v>
+      </c>
+      <c r="C104">
+        <v>11.5177</v>
+      </c>
+      <c r="D104">
+        <v>37.134999999999998</v>
+      </c>
+      <c r="E104">
+        <v>21.851900000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1709.61</v>
+      </c>
+      <c r="C105">
+        <v>10.3469</v>
+      </c>
+      <c r="D105">
+        <v>37.051099999999998</v>
+      </c>
+      <c r="E105">
+        <v>21.8261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1768.43</v>
+      </c>
+      <c r="C106">
+        <v>11.4193</v>
+      </c>
+      <c r="D106">
+        <v>49.770699999999998</v>
+      </c>
+      <c r="E106">
+        <v>21.592400000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1650.41</v>
+      </c>
+      <c r="C107">
+        <v>10.894500000000001</v>
+      </c>
+      <c r="D107">
+        <v>67.941699999999997</v>
+      </c>
+      <c r="E107">
+        <v>21.6816</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>1697.37</v>
+      </c>
+      <c r="C108">
+        <v>10.8161</v>
+      </c>
+      <c r="D108">
+        <v>89.109899999999996</v>
+      </c>
+      <c r="E108">
+        <v>21.713899999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>1757.05</v>
+      </c>
+      <c r="C109">
+        <v>10.1264</v>
+      </c>
+      <c r="D109">
+        <v>95.961799999999997</v>
+      </c>
+      <c r="E109">
+        <v>21.591000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>1651.03</v>
+      </c>
+      <c r="C110">
+        <v>10.2158</v>
+      </c>
+      <c r="D110">
+        <v>118.378</v>
+      </c>
+      <c r="E110">
+        <v>21.392399999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>1710.56</v>
+      </c>
+      <c r="C111">
+        <v>9.6188000000000002</v>
+      </c>
+      <c r="D111">
+        <v>127.872</v>
+      </c>
+      <c r="E111">
+        <v>21.3691</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>1822.75</v>
+      </c>
+      <c r="C112">
+        <v>9.7221600000000006</v>
+      </c>
+      <c r="D112">
+        <v>150.71600000000001</v>
+      </c>
+      <c r="E112">
+        <v>21.253499999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>1600.82</v>
+      </c>
+      <c r="C113">
+        <v>8.9350400000000008</v>
+      </c>
+      <c r="D113">
+        <v>148.184</v>
+      </c>
+      <c r="E113">
+        <v>21.0945</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>1737.57</v>
+      </c>
+      <c r="C114">
+        <v>8.7579600000000006</v>
+      </c>
+      <c r="D114">
+        <v>158.26300000000001</v>
+      </c>
+      <c r="E114">
+        <v>21.078600000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>1682.02</v>
+      </c>
+      <c r="C115">
+        <v>8.9792699999999996</v>
+      </c>
+      <c r="D115">
+        <v>166.148</v>
+      </c>
+      <c r="E115">
+        <v>20.9909</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>1696.43</v>
+      </c>
+      <c r="C116">
+        <v>8.7066199999999991</v>
+      </c>
+      <c r="D116">
+        <v>182.06</v>
+      </c>
+      <c r="E116">
+        <v>21.052499999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>1556.85</v>
+      </c>
+      <c r="C117">
+        <v>8.3024400000000007</v>
+      </c>
+      <c r="D117">
+        <v>159.15600000000001</v>
+      </c>
+      <c r="E117">
+        <v>21.042200000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>1644.05</v>
+      </c>
+      <c r="C118">
+        <v>8.20425</v>
+      </c>
+      <c r="D118">
+        <v>170.22800000000001</v>
+      </c>
+      <c r="E118">
+        <v>21.0381</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>1800.09</v>
+      </c>
+      <c r="C119">
+        <v>7.8696099999999998</v>
+      </c>
+      <c r="D119">
+        <v>184.304</v>
+      </c>
+      <c r="E119">
+        <v>21.013200000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>1785.28</v>
+      </c>
+      <c r="C120">
+        <v>7.6863900000000003</v>
+      </c>
+      <c r="D120">
+        <v>186.41399999999999</v>
+      </c>
+      <c r="E120">
+        <v>20.951599999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>1633.48</v>
+      </c>
+      <c r="C121">
+        <v>7.16913</v>
+      </c>
+      <c r="D121">
+        <v>155.422</v>
+      </c>
+      <c r="E121">
+        <v>20.706700000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>1712.29</v>
+      </c>
+      <c r="C122">
+        <v>7.1802999999999999</v>
+      </c>
+      <c r="D122">
+        <v>144.386</v>
+      </c>
+      <c r="E122">
+        <v>20.943000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>1728.1</v>
+      </c>
+      <c r="C123">
+        <v>6.9563800000000002</v>
+      </c>
+      <c r="D123">
+        <v>130.167</v>
+      </c>
+      <c r="E123">
+        <v>20.7088</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>1610.42</v>
+      </c>
+      <c r="C124">
+        <v>6.9597600000000002</v>
+      </c>
+      <c r="D124">
+        <v>109.827</v>
+      </c>
+      <c r="E124">
+        <v>20.684999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>1710.12</v>
+      </c>
+      <c r="C125">
+        <v>6.9568599999999998</v>
+      </c>
+      <c r="D125">
+        <v>103.23</v>
+      </c>
+      <c r="E125">
+        <v>20.7149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>1795.43</v>
+      </c>
+      <c r="C126">
+        <v>6.7261899999999999</v>
+      </c>
+      <c r="D126">
+        <v>86.945700000000002</v>
+      </c>
+      <c r="E126">
+        <v>20.6599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>1675.77</v>
+      </c>
+      <c r="C127">
+        <v>6.6497700000000002</v>
+      </c>
+      <c r="D127">
+        <v>69.379800000000003</v>
+      </c>
+      <c r="E127">
+        <v>20.714500000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>1645.73</v>
+      </c>
+      <c r="C128">
+        <v>6.6330400000000003</v>
+      </c>
+      <c r="D128">
+        <v>52.482999999999997</v>
+      </c>
+      <c r="E128">
+        <v>20.732500000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>1635.41</v>
+      </c>
+      <c r="C129">
+        <v>6.5362200000000001</v>
+      </c>
+      <c r="D129">
+        <v>41.6648</v>
+      </c>
+      <c r="E129">
+        <v>20.613399999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>